--- a/_site/Data/ModuleKeyCC.xlsx
+++ b/_site/Data/ModuleKeyCC.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE446260-685B-444D-BC22-9F7A0FA0EC33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE446260-685B-444D-BC22-9F7A0FA0EC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10200" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{DAC75C9A-3E67-0943-80CC-595BE54D1DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -33,71 +42,71 @@
     <t>About</t>
   </si>
   <si>
+    <t>Go to Module</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>Child Tax Credit</t>
+  </si>
+  <si>
+    <t>Use of child tax credit</t>
+  </si>
+  <si>
+    <t>11, 13, 15</t>
+  </si>
+  <si>
+    <t>Debt and Overdue Bills</t>
+  </si>
+  <si>
+    <t>Sources of debt</t>
+  </si>
+  <si>
+    <t>Economic stability</t>
+  </si>
+  <si>
+    <t>Feelings regarding housing, employment, work schedule, and childcare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Food Insecurity </t>
   </si>
   <si>
+    <t>USDA questions, includes frequency of hunger, insufficient food for family</t>
+  </si>
+  <si>
+    <t>9, 13</t>
+  </si>
+  <si>
+    <t>Other Hardships</t>
+  </si>
+  <si>
+    <t>Difficulty paying for basic needs: food, housing, utlities, childcare, healthcare, emotional/social support. Concerns about and experiences with eviction and foreclosure.</t>
+  </si>
+  <si>
     <t xml:space="preserve">RISER </t>
   </si>
   <si>
     <t>Explores experiences of racism and discrimination; 2 sets of same questions, one on pre-pandemic experiences, one since the pandemic</t>
   </si>
   <si>
-    <t>Difficulty paying for basic needs: food, housing, utlities, childcare, healthcare, emotional/social support. Concerns about and experiences with eviction and foreclosure.</t>
-  </si>
-  <si>
-    <t>USDA questions, includes frequency of hunger, insufficient food for family</t>
+    <t>Vaccines</t>
   </si>
   <si>
     <t>Missed vaccine at well-check visit and why; asks if they will get a COVID-19 vaccine if offered</t>
   </si>
   <si>
-    <t>Go to Module</t>
-  </si>
-  <si>
-    <t>Other Hardships</t>
-  </si>
-  <si>
-    <t>Vaccines</t>
-  </si>
-  <si>
-    <t>Child Tax Credit</t>
-  </si>
-  <si>
-    <t>Debt and Overdue Bills</t>
-  </si>
-  <si>
-    <t>Use of child tax credit</t>
-  </si>
-  <si>
-    <t>Sources of debt</t>
-  </si>
-  <si>
-    <t>Economic stability</t>
-  </si>
-  <si>
-    <t>Feelings regarding housing, employment, work schedule, and childcare</t>
-  </si>
-  <si>
     <t>Work Schedule</t>
   </si>
   <si>
     <t xml:space="preserve">What does the work week look like for childcare providers? </t>
-  </si>
-  <si>
-    <t>Survey</t>
-  </si>
-  <si>
-    <t>11, 13, 15</t>
-  </si>
-  <si>
-    <t>9, 13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -460,16 +469,16 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="33.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17.100000000000001">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,102 +486,102 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.100000000000001">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.100000000000001">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="33.950000000000003">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="33.950000000000003">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="84.95">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="68.099999999999994">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="51">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="33.950000000000003">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3">

--- a/_site/Data/ModuleKeyCC.xlsx
+++ b/_site/Data/ModuleKeyCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Module</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Go to Module</t>
   </si>
   <si>
-    <t>Survey</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <t>Child Tax Credit</t>
@@ -54,7 +54,7 @@
     <t>Use of child tax credit</t>
   </si>
   <si>
-    <t>11, 13, 15</t>
+    <t>05/02/2021-05/13/2021 05/14/2021-05/28/2021 06/02/2021-06/07/2021</t>
   </si>
   <si>
     <t>Debt and Overdue Bills</t>
@@ -63,6 +63,9 @@
     <t>Sources of debt</t>
   </si>
   <si>
+    <t>05/02/2021-05/13/2021</t>
+  </si>
+  <si>
     <t>Economic stability</t>
   </si>
   <si>
@@ -75,7 +78,7 @@
     <t>USDA questions, includes frequency of hunger, insufficient food for family</t>
   </si>
   <si>
-    <t>9, 13</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021</t>
   </si>
   <si>
     <t>Other Hardships</t>
@@ -84,10 +87,16 @@
     <t>Difficulty paying for basic needs: food, housing, utlities, childcare, healthcare, emotional/social support. Concerns about and experiences with eviction and foreclosure.</t>
   </si>
   <si>
+    <t>05/14/2021-05/28/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">RISER </t>
   </si>
   <si>
     <t>Explores experiences of racism and discrimination; 2 sets of same questions, one on pre-pandemic experiences, one since the pandemic</t>
+  </si>
+  <si>
+    <t>06/02/2021-06/07/2021</t>
   </si>
   <si>
     <t>Vaccines</t>
@@ -466,7 +475,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -474,11 +483,11 @@
     <col min="1" max="1" width="33.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="49.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="2" customWidth="1"/>
     <col min="5" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.100000000000001">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.100000000000001">
+    <row r="2" spans="1:4" ht="47.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -504,7 +513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.100000000000001">
+    <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -512,80 +521,80 @@
         <v>8</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.5">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="33.950000000000003">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="33.950000000000003">
+    </row>
+    <row r="5" spans="1:4" ht="31.5">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="84.95">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="78.75">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="68.099999999999994">
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="63">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="47.25">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.5">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="51">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="33.950000000000003">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -593,8 +602,5 @@
     <sortCondition ref="A4:A8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="D2" twoDigitTextYear="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/_site/Data/ModuleKeyCC.xlsx
+++ b/_site/Data/ModuleKeyCC.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgxff4htFEOZHMUqE7t9+m1JrS1IQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj3A+KCxFhiNW6JKdvSILkupfpeFA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="142">
   <si>
     <t>Module</t>
   </si>
@@ -30,6 +30,78 @@
     <t>Dates Used</t>
   </si>
   <si>
+    <t>Burnout</t>
+  </si>
+  <si>
+    <t>Perception of burnout in the child care field</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/burnoutcc</t>
+  </si>
+  <si>
+    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
+  </si>
+  <si>
+    <t>Child Care Experiences</t>
+  </si>
+  <si>
+    <t>What child care providers are impacted by at work</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/childcareexperiencescc</t>
+  </si>
+  <si>
+    <t>11/09/2022-11/16/2022</t>
+  </si>
+  <si>
+    <t>Child Care Subsidy</t>
+  </si>
+  <si>
+    <t>How child care providers manage child care subsidies</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/childcaresubsidycc</t>
+  </si>
+  <si>
+    <t>10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 05/09/2022-05/24/2022</t>
+  </si>
+  <si>
+    <t>Child Care Closures and COVID Safety</t>
+  </si>
+  <si>
+    <t>How child care closures impact child care providers</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/childcareclosurescovidsafety</t>
+  </si>
+  <si>
+    <t>01/11/2021-01/22/2021</t>
+  </si>
+  <si>
+    <t>Child Care for Own Child</t>
+  </si>
+  <si>
+    <t>The need for child care for the children of child care providers</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/childcareforownchildcc</t>
+  </si>
+  <si>
+    <t>08/02/2021-08/26/2021</t>
+  </si>
+  <si>
+    <t>Child Social Interactions</t>
+  </si>
+  <si>
+    <t>Child interactions with other adults and children</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/childsocialinteractionscc</t>
+  </si>
+  <si>
+    <t>09/08/2022-09/15/2022 01/11/2023-01/18/2023</t>
+  </si>
+  <si>
     <t>Child Tax Credit</t>
   </si>
   <si>
@@ -39,13 +111,49 @@
     <t>05/02/2021-05/13/2021 05/14/2021-05/28/2021 06/02/2021-06/07/2021</t>
   </si>
   <si>
+    <t>COVID</t>
+  </si>
+  <si>
+    <t>Changes in enrollment for child care providers</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/covidcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	01/31/2022-02/11/2022</t>
+  </si>
+  <si>
     <t>Debt and Overdue Bills</t>
   </si>
   <si>
     <t>Sources of debt</t>
   </si>
   <si>
-    <t>05/02/2021-05/13/2021</t>
+    <t>https://r3questionbank.netlify.app/debtandoverduebillscc</t>
+  </si>
+  <si>
+    <t>05/02/2021-05/13/2021 08/04/2021-08/06/2021</t>
+  </si>
+  <si>
+    <t>Disability</t>
+  </si>
+  <si>
+    <t>Child care providers caring for children with disabilities</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/disabilitycc</t>
+  </si>
+  <si>
+    <t>05/09/2022-05/24/2022 07/08/2022-07/15/2022</t>
+  </si>
+  <si>
+    <t>Child care providers access to resources for their own disability</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/disabilityprovidercc</t>
+  </si>
+  <si>
+    <t>07/08/2022-07/15/2022</t>
   </si>
   <si>
     <t>Economic stability</t>
@@ -54,13 +162,133 @@
     <t>Feelings regarding housing, employment, work schedule, and childcare</t>
   </si>
   <si>
+    <t>https://r3questionbank.netlify.app/economicstabilityccmodule</t>
+  </si>
+  <si>
+    <t>05/02/2021-05/13/2021 10/13/2021-10/17/2021</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>Asks participants if they are supporting people outside the immediate family</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/employmentcc</t>
+  </si>
+  <si>
+    <t>12/07/2021-12/21/2021</t>
+  </si>
+  <si>
+    <t>Family Conflict</t>
+  </si>
+  <si>
+    <t>Frequency of certain types of interactions within family; conflict, affection, support, as well as what helps</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/famconfcc</t>
+  </si>
+  <si>
+    <t>08/04/2021-08/06/2021 09/08/2022-09/15/2022 01/11/2023-01/18/2023</t>
+  </si>
+  <si>
+    <t>Family Routines</t>
+  </si>
+  <si>
+    <t>Frequency of certain family routines: bedtime, mealtime, wake up, family time. Pre-pandemic and currently.</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/familyroutinescc</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Meals provided at child care</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/foodaidcc</t>
+  </si>
+  <si>
+    <t>01/31/2022-02/11/2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">Food Insecurity </t>
   </si>
   <si>
     <t>USDA questions, includes frequency of hunger, insufficient food for family</t>
   </si>
   <si>
-    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021</t>
+    <t>https://r3questionbank.netlify.app/foodinsecuritymodulecc</t>
+  </si>
+  <si>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Has anyone in family gone without healthcare, delayed getting care, gone to work or school while sick</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/healthcaremodulecc</t>
+  </si>
+  <si>
+    <t>Inflation</t>
+  </si>
+  <si>
+    <t>How inflation is impacting child care</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/inflationcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
+  </si>
+  <si>
+    <t>Mission Driven Finance</t>
+  </si>
+  <si>
+    <t>Access to affordable housing for child care</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/missiondrivenfinancecc</t>
+  </si>
+  <si>
+    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022</t>
+  </si>
+  <si>
+    <t>Multigenerational</t>
+  </si>
+  <si>
+    <t>The household roles of their family</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/multigenerationalcc</t>
+  </si>
+  <si>
+    <t>Omicron</t>
+  </si>
+  <si>
+    <t>Impact of Omicron</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/omicronmodulecc</t>
+  </si>
+  <si>
+    <t>01/11/2021-01/22/2021 01/31/2022-02/07/2022</t>
+  </si>
+  <si>
+    <t>Open Ended Questions</t>
+  </si>
+  <si>
+    <t>Open ended questions</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/openendedmodulecc</t>
+  </si>
+  <si>
+    <t>02/23/2021-03/04/2021 03/09/2021-03/18/2021 03/23/2021-03/31/2021 04/05/2021-04/08/2021 04/12/2021-04/15/2021 04/19/2021-04/29/2021 05/02/2021-05/13/2021 05/14/2021-05/28/2021 06/02/2021-06/07/2021 06/08/2021-06/10/2021 06/14/2021-06/17/2021 06/22/2021-06/25/2021 06/28/2021-07/02/2021 08/06/2021-07/08/2021 07/12/2021-07/18/2021 07/20/2021-07/22/2021 07/26/2021-07/29/2021 08/09/2021-08/12/2021 08/02/2021-08/26/2021 09/01/2021-09/03/2021 09/07/2021-09/09/2021 09/15/2021-09/17/2021 09/20/2021-09/22/2021 09/29/2021-10/01/2021 10/05/2021-10/08/2021 10/13/2021-10/17/2021 10/17/2021-10/20/2021 10/26/2021-11/01/2021 11/01/2021-11/12/2021 11/10/2021-11/15/2021 11/02/2021-11/13/2021 11/19/2021-11/23/2021 11/29/2021-12/02/2021 12/07/2021-12/21/2021 12/13/2021-12/21/2021 12/08/2021-12/14/2021 11/29/2021-12/20/2021 01/11/2022-01/18/2022</t>
   </si>
   <si>
     <t>Other Hardships</t>
@@ -69,16 +297,115 @@
     <t>Difficulty paying for basic needs: food, housing, utlities, childcare, healthcare, emotional/social support. Concerns about and experiences with eviction and foreclosure.</t>
   </si>
   <si>
-    <t>05/14/2021-05/28/2021</t>
+    <t>https://r3questionbank.netlify.app/otherhardshipscc</t>
   </si>
   <si>
-    <t xml:space="preserve">RISER </t>
+    <t>Provider Debt</t>
+  </si>
+  <si>
+    <t>Debt for child care providers</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/providerdebt</t>
+  </si>
+  <si>
+    <t>Race and Discrimination</t>
   </si>
   <si>
     <t>Explores experiences of racism and discrimination; 2 sets of same questions, one on pre-pandemic experiences, one since the pandemic</t>
   </si>
   <si>
-    <t>06/02/2021-06/07/2021</t>
+    <t>https://r3questionbank.netlify.app/risercc</t>
+  </si>
+  <si>
+    <t>06/02/2021-06/07/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 	11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
+  </si>
+  <si>
+    <t>SNAP/EBT</t>
+  </si>
+  <si>
+    <t>The perceived impact that the reduction of benefits will have</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/snapebtcc</t>
+  </si>
+  <si>
+    <t>02/16/2023-02/23/2023</t>
+  </si>
+  <si>
+    <t>Social Determinants of Health</t>
+  </si>
+  <si>
+    <t>Impact of resource access on child well being</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/socialdeterminantsofhealthcc</t>
+  </si>
+  <si>
+    <t>01/11/2023-01/18/2023</t>
+  </si>
+  <si>
+    <t>Social Support</t>
+  </si>
+  <si>
+    <t>Types of social supports experiencing and frequency; pre-pandemic and current</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/socialsupportcc</t>
+  </si>
+  <si>
+    <t>08/04/2021-08/06/2021 09/15/2021-09/17/2021 09/08/2022-09/15/2022 01/11/2023-01/18/2023</t>
+  </si>
+  <si>
+    <t>Stabalization Funds</t>
+  </si>
+  <si>
+    <t>Financial assistance received by child care providers</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/stabilizationfundscc</t>
+  </si>
+  <si>
+    <t>10/13/2021-10/17/2021 11/10/2021-11/15/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021 01/31/2022-02/11/2022 05/09/2022-05/24/2022</t>
+  </si>
+  <si>
+    <t>Staffing and Retention</t>
+  </si>
+  <si>
+    <t>The impact of staffing shortages</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/staffingretentioncc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	08/02/2021-08/26/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/staffingandretentioncc</t>
+  </si>
+  <si>
+    <t>Stand Alone Questions</t>
+  </si>
+  <si>
+    <t>Impact of child care closures</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/standalonequestionscc</t>
+  </si>
+  <si>
+    <t>09/29/2021-10/01/2021 10/26/2021-11/01/2021</t>
+  </si>
+  <si>
+    <t>Unemployment</t>
+  </si>
+  <si>
+    <t>Use of unemployment</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/unemploymentccmodule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	12/07/2021-12/21/2021</t>
   </si>
   <si>
     <t>Vaccines</t>
@@ -87,17 +414,41 @@
     <t>Missed vaccine at well-check visit and why; asks if they will get a COVID-19 vaccine if offered</t>
   </si>
   <si>
+    <t>https://r3questionbank.netlify.app/vaccinesmodulecc</t>
+  </si>
+  <si>
+    <t>06/02/2021-06/07/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021 12/07/2021-12/21/2021 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022</t>
+  </si>
+  <si>
+    <t>Vaccine</t>
+  </si>
+  <si>
+    <t>Vaccination of children</t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/vaccinechildrencc</t>
+  </si>
+  <si>
+    <t>12/07/2021-12/21/2021 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022</t>
+  </si>
+  <si>
     <t>Work Schedule</t>
   </si>
   <si>
     <t xml:space="preserve">What does the work week look like for childcare providers? </t>
+  </si>
+  <si>
+    <t>https://r3questionbank.netlify.app/workschedulemodulecc</t>
+  </si>
+  <si>
+    <t>05/14/2021-05/28/2021 10/26/2021-11/01/2021 01/31/2022-02/11/2022 05/09/2022-05/24/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -107,6 +458,18 @@
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -124,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -135,10 +498,22 @@
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,9 +781,11 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -435,14 +812,16 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -469,14 +848,16 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -503,14 +884,16 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -537,14 +920,16 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -571,14 +956,16 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -604,15 +991,15 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
+      <c r="A8" s="6" t="s">
+        <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
+      <c r="B8" s="6" t="s">
+        <v>29</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -639,14 +1026,16 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -672,10 +1061,18 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -700,10 +1097,18 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -728,10 +1133,18 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -756,10 +1169,18 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -784,10 +1205,18 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -812,10 +1241,18 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -840,10 +1277,18 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -868,10 +1313,18 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -896,10 +1349,18 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -924,10 +1385,18 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -952,10 +1421,18 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -980,10 +1457,18 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1008,10 +1493,18 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1036,10 +1529,18 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1064,10 +1565,18 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1092,10 +1601,18 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1120,10 +1637,18 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1148,10 +1673,18 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1176,10 +1709,18 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1204,10 +1745,18 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1232,10 +1781,18 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1260,10 +1817,18 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1288,10 +1853,18 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1316,10 +1889,18 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1344,10 +1925,18 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1372,10 +1961,18 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1400,10 +1997,18 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1428,10 +2033,18 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1456,10 +2069,18 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="2"/>
+      <c r="A38" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -28419,10 +29040,860 @@
       <c r="Y1000" s="1"/>
       <c r="Z1000" s="1"/>
     </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="1"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="1"/>
+      <c r="F1001" s="1"/>
+      <c r="G1001" s="1"/>
+      <c r="H1001" s="1"/>
+      <c r="I1001" s="1"/>
+      <c r="J1001" s="1"/>
+      <c r="K1001" s="1"/>
+      <c r="L1001" s="1"/>
+      <c r="M1001" s="1"/>
+      <c r="N1001" s="1"/>
+      <c r="O1001" s="1"/>
+      <c r="P1001" s="1"/>
+      <c r="Q1001" s="1"/>
+      <c r="R1001" s="1"/>
+      <c r="S1001" s="1"/>
+      <c r="T1001" s="1"/>
+      <c r="U1001" s="1"/>
+      <c r="V1001" s="1"/>
+      <c r="W1001" s="1"/>
+      <c r="X1001" s="1"/>
+      <c r="Y1001" s="1"/>
+      <c r="Z1001" s="1"/>
+    </row>
+    <row r="1002" ht="15.75" customHeight="1">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="1"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="1"/>
+      <c r="F1002" s="1"/>
+      <c r="G1002" s="1"/>
+      <c r="H1002" s="1"/>
+      <c r="I1002" s="1"/>
+      <c r="J1002" s="1"/>
+      <c r="K1002" s="1"/>
+      <c r="L1002" s="1"/>
+      <c r="M1002" s="1"/>
+      <c r="N1002" s="1"/>
+      <c r="O1002" s="1"/>
+      <c r="P1002" s="1"/>
+      <c r="Q1002" s="1"/>
+      <c r="R1002" s="1"/>
+      <c r="S1002" s="1"/>
+      <c r="T1002" s="1"/>
+      <c r="U1002" s="1"/>
+      <c r="V1002" s="1"/>
+      <c r="W1002" s="1"/>
+      <c r="X1002" s="1"/>
+      <c r="Y1002" s="1"/>
+      <c r="Z1002" s="1"/>
+    </row>
+    <row r="1003" ht="15.75" customHeight="1">
+      <c r="A1003" s="1"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="1"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="1"/>
+      <c r="F1003" s="1"/>
+      <c r="G1003" s="1"/>
+      <c r="H1003" s="1"/>
+      <c r="I1003" s="1"/>
+      <c r="J1003" s="1"/>
+      <c r="K1003" s="1"/>
+      <c r="L1003" s="1"/>
+      <c r="M1003" s="1"/>
+      <c r="N1003" s="1"/>
+      <c r="O1003" s="1"/>
+      <c r="P1003" s="1"/>
+      <c r="Q1003" s="1"/>
+      <c r="R1003" s="1"/>
+      <c r="S1003" s="1"/>
+      <c r="T1003" s="1"/>
+      <c r="U1003" s="1"/>
+      <c r="V1003" s="1"/>
+      <c r="W1003" s="1"/>
+      <c r="X1003" s="1"/>
+      <c r="Y1003" s="1"/>
+      <c r="Z1003" s="1"/>
+    </row>
+    <row r="1004" ht="15.75" customHeight="1">
+      <c r="A1004" s="1"/>
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="1"/>
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="1"/>
+      <c r="F1004" s="1"/>
+      <c r="G1004" s="1"/>
+      <c r="H1004" s="1"/>
+      <c r="I1004" s="1"/>
+      <c r="J1004" s="1"/>
+      <c r="K1004" s="1"/>
+      <c r="L1004" s="1"/>
+      <c r="M1004" s="1"/>
+      <c r="N1004" s="1"/>
+      <c r="O1004" s="1"/>
+      <c r="P1004" s="1"/>
+      <c r="Q1004" s="1"/>
+      <c r="R1004" s="1"/>
+      <c r="S1004" s="1"/>
+      <c r="T1004" s="1"/>
+      <c r="U1004" s="1"/>
+      <c r="V1004" s="1"/>
+      <c r="W1004" s="1"/>
+      <c r="X1004" s="1"/>
+      <c r="Y1004" s="1"/>
+      <c r="Z1004" s="1"/>
+    </row>
+    <row r="1005" ht="15.75" customHeight="1">
+      <c r="A1005" s="1"/>
+      <c r="B1005" s="2"/>
+      <c r="C1005" s="1"/>
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="1"/>
+      <c r="F1005" s="1"/>
+      <c r="G1005" s="1"/>
+      <c r="H1005" s="1"/>
+      <c r="I1005" s="1"/>
+      <c r="J1005" s="1"/>
+      <c r="K1005" s="1"/>
+      <c r="L1005" s="1"/>
+      <c r="M1005" s="1"/>
+      <c r="N1005" s="1"/>
+      <c r="O1005" s="1"/>
+      <c r="P1005" s="1"/>
+      <c r="Q1005" s="1"/>
+      <c r="R1005" s="1"/>
+      <c r="S1005" s="1"/>
+      <c r="T1005" s="1"/>
+      <c r="U1005" s="1"/>
+      <c r="V1005" s="1"/>
+      <c r="W1005" s="1"/>
+      <c r="X1005" s="1"/>
+      <c r="Y1005" s="1"/>
+      <c r="Z1005" s="1"/>
+    </row>
+    <row r="1006" ht="15.75" customHeight="1">
+      <c r="A1006" s="1"/>
+      <c r="B1006" s="2"/>
+      <c r="C1006" s="1"/>
+      <c r="D1006" s="2"/>
+      <c r="E1006" s="1"/>
+      <c r="F1006" s="1"/>
+      <c r="G1006" s="1"/>
+      <c r="H1006" s="1"/>
+      <c r="I1006" s="1"/>
+      <c r="J1006" s="1"/>
+      <c r="K1006" s="1"/>
+      <c r="L1006" s="1"/>
+      <c r="M1006" s="1"/>
+      <c r="N1006" s="1"/>
+      <c r="O1006" s="1"/>
+      <c r="P1006" s="1"/>
+      <c r="Q1006" s="1"/>
+      <c r="R1006" s="1"/>
+      <c r="S1006" s="1"/>
+      <c r="T1006" s="1"/>
+      <c r="U1006" s="1"/>
+      <c r="V1006" s="1"/>
+      <c r="W1006" s="1"/>
+      <c r="X1006" s="1"/>
+      <c r="Y1006" s="1"/>
+      <c r="Z1006" s="1"/>
+    </row>
+    <row r="1007" ht="15.75" customHeight="1">
+      <c r="A1007" s="1"/>
+      <c r="B1007" s="2"/>
+      <c r="C1007" s="1"/>
+      <c r="D1007" s="2"/>
+      <c r="E1007" s="1"/>
+      <c r="F1007" s="1"/>
+      <c r="G1007" s="1"/>
+      <c r="H1007" s="1"/>
+      <c r="I1007" s="1"/>
+      <c r="J1007" s="1"/>
+      <c r="K1007" s="1"/>
+      <c r="L1007" s="1"/>
+      <c r="M1007" s="1"/>
+      <c r="N1007" s="1"/>
+      <c r="O1007" s="1"/>
+      <c r="P1007" s="1"/>
+      <c r="Q1007" s="1"/>
+      <c r="R1007" s="1"/>
+      <c r="S1007" s="1"/>
+      <c r="T1007" s="1"/>
+      <c r="U1007" s="1"/>
+      <c r="V1007" s="1"/>
+      <c r="W1007" s="1"/>
+      <c r="X1007" s="1"/>
+      <c r="Y1007" s="1"/>
+      <c r="Z1007" s="1"/>
+    </row>
+    <row r="1008" ht="15.75" customHeight="1">
+      <c r="A1008" s="1"/>
+      <c r="B1008" s="2"/>
+      <c r="C1008" s="1"/>
+      <c r="D1008" s="2"/>
+      <c r="E1008" s="1"/>
+      <c r="F1008" s="1"/>
+      <c r="G1008" s="1"/>
+      <c r="H1008" s="1"/>
+      <c r="I1008" s="1"/>
+      <c r="J1008" s="1"/>
+      <c r="K1008" s="1"/>
+      <c r="L1008" s="1"/>
+      <c r="M1008" s="1"/>
+      <c r="N1008" s="1"/>
+      <c r="O1008" s="1"/>
+      <c r="P1008" s="1"/>
+      <c r="Q1008" s="1"/>
+      <c r="R1008" s="1"/>
+      <c r="S1008" s="1"/>
+      <c r="T1008" s="1"/>
+      <c r="U1008" s="1"/>
+      <c r="V1008" s="1"/>
+      <c r="W1008" s="1"/>
+      <c r="X1008" s="1"/>
+      <c r="Y1008" s="1"/>
+      <c r="Z1008" s="1"/>
+    </row>
+    <row r="1009" ht="15.75" customHeight="1">
+      <c r="A1009" s="1"/>
+      <c r="B1009" s="2"/>
+      <c r="C1009" s="1"/>
+      <c r="D1009" s="2"/>
+      <c r="E1009" s="1"/>
+      <c r="F1009" s="1"/>
+      <c r="G1009" s="1"/>
+      <c r="H1009" s="1"/>
+      <c r="I1009" s="1"/>
+      <c r="J1009" s="1"/>
+      <c r="K1009" s="1"/>
+      <c r="L1009" s="1"/>
+      <c r="M1009" s="1"/>
+      <c r="N1009" s="1"/>
+      <c r="O1009" s="1"/>
+      <c r="P1009" s="1"/>
+      <c r="Q1009" s="1"/>
+      <c r="R1009" s="1"/>
+      <c r="S1009" s="1"/>
+      <c r="T1009" s="1"/>
+      <c r="U1009" s="1"/>
+      <c r="V1009" s="1"/>
+      <c r="W1009" s="1"/>
+      <c r="X1009" s="1"/>
+      <c r="Y1009" s="1"/>
+      <c r="Z1009" s="1"/>
+    </row>
+    <row r="1010" ht="15.75" customHeight="1">
+      <c r="A1010" s="1"/>
+      <c r="B1010" s="2"/>
+      <c r="C1010" s="1"/>
+      <c r="D1010" s="2"/>
+      <c r="E1010" s="1"/>
+      <c r="F1010" s="1"/>
+      <c r="G1010" s="1"/>
+      <c r="H1010" s="1"/>
+      <c r="I1010" s="1"/>
+      <c r="J1010" s="1"/>
+      <c r="K1010" s="1"/>
+      <c r="L1010" s="1"/>
+      <c r="M1010" s="1"/>
+      <c r="N1010" s="1"/>
+      <c r="O1010" s="1"/>
+      <c r="P1010" s="1"/>
+      <c r="Q1010" s="1"/>
+      <c r="R1010" s="1"/>
+      <c r="S1010" s="1"/>
+      <c r="T1010" s="1"/>
+      <c r="U1010" s="1"/>
+      <c r="V1010" s="1"/>
+      <c r="W1010" s="1"/>
+      <c r="X1010" s="1"/>
+      <c r="Y1010" s="1"/>
+      <c r="Z1010" s="1"/>
+    </row>
+    <row r="1011" ht="15.75" customHeight="1">
+      <c r="A1011" s="1"/>
+      <c r="B1011" s="2"/>
+      <c r="C1011" s="1"/>
+      <c r="D1011" s="2"/>
+      <c r="E1011" s="1"/>
+      <c r="F1011" s="1"/>
+      <c r="G1011" s="1"/>
+      <c r="H1011" s="1"/>
+      <c r="I1011" s="1"/>
+      <c r="J1011" s="1"/>
+      <c r="K1011" s="1"/>
+      <c r="L1011" s="1"/>
+      <c r="M1011" s="1"/>
+      <c r="N1011" s="1"/>
+      <c r="O1011" s="1"/>
+      <c r="P1011" s="1"/>
+      <c r="Q1011" s="1"/>
+      <c r="R1011" s="1"/>
+      <c r="S1011" s="1"/>
+      <c r="T1011" s="1"/>
+      <c r="U1011" s="1"/>
+      <c r="V1011" s="1"/>
+      <c r="W1011" s="1"/>
+      <c r="X1011" s="1"/>
+      <c r="Y1011" s="1"/>
+      <c r="Z1011" s="1"/>
+    </row>
+    <row r="1012" ht="15.75" customHeight="1">
+      <c r="A1012" s="1"/>
+      <c r="B1012" s="2"/>
+      <c r="C1012" s="1"/>
+      <c r="D1012" s="2"/>
+      <c r="E1012" s="1"/>
+      <c r="F1012" s="1"/>
+      <c r="G1012" s="1"/>
+      <c r="H1012" s="1"/>
+      <c r="I1012" s="1"/>
+      <c r="J1012" s="1"/>
+      <c r="K1012" s="1"/>
+      <c r="L1012" s="1"/>
+      <c r="M1012" s="1"/>
+      <c r="N1012" s="1"/>
+      <c r="O1012" s="1"/>
+      <c r="P1012" s="1"/>
+      <c r="Q1012" s="1"/>
+      <c r="R1012" s="1"/>
+      <c r="S1012" s="1"/>
+      <c r="T1012" s="1"/>
+      <c r="U1012" s="1"/>
+      <c r="V1012" s="1"/>
+      <c r="W1012" s="1"/>
+      <c r="X1012" s="1"/>
+      <c r="Y1012" s="1"/>
+      <c r="Z1012" s="1"/>
+    </row>
+    <row r="1013" ht="15.75" customHeight="1">
+      <c r="A1013" s="1"/>
+      <c r="B1013" s="2"/>
+      <c r="C1013" s="1"/>
+      <c r="D1013" s="2"/>
+      <c r="E1013" s="1"/>
+      <c r="F1013" s="1"/>
+      <c r="G1013" s="1"/>
+      <c r="H1013" s="1"/>
+      <c r="I1013" s="1"/>
+      <c r="J1013" s="1"/>
+      <c r="K1013" s="1"/>
+      <c r="L1013" s="1"/>
+      <c r="M1013" s="1"/>
+      <c r="N1013" s="1"/>
+      <c r="O1013" s="1"/>
+      <c r="P1013" s="1"/>
+      <c r="Q1013" s="1"/>
+      <c r="R1013" s="1"/>
+      <c r="S1013" s="1"/>
+      <c r="T1013" s="1"/>
+      <c r="U1013" s="1"/>
+      <c r="V1013" s="1"/>
+      <c r="W1013" s="1"/>
+      <c r="X1013" s="1"/>
+      <c r="Y1013" s="1"/>
+      <c r="Z1013" s="1"/>
+    </row>
+    <row r="1014" ht="15.75" customHeight="1">
+      <c r="A1014" s="1"/>
+      <c r="B1014" s="2"/>
+      <c r="C1014" s="1"/>
+      <c r="D1014" s="2"/>
+      <c r="E1014" s="1"/>
+      <c r="F1014" s="1"/>
+      <c r="G1014" s="1"/>
+      <c r="H1014" s="1"/>
+      <c r="I1014" s="1"/>
+      <c r="J1014" s="1"/>
+      <c r="K1014" s="1"/>
+      <c r="L1014" s="1"/>
+      <c r="M1014" s="1"/>
+      <c r="N1014" s="1"/>
+      <c r="O1014" s="1"/>
+      <c r="P1014" s="1"/>
+      <c r="Q1014" s="1"/>
+      <c r="R1014" s="1"/>
+      <c r="S1014" s="1"/>
+      <c r="T1014" s="1"/>
+      <c r="U1014" s="1"/>
+      <c r="V1014" s="1"/>
+      <c r="W1014" s="1"/>
+      <c r="X1014" s="1"/>
+      <c r="Y1014" s="1"/>
+      <c r="Z1014" s="1"/>
+    </row>
+    <row r="1015" ht="15.75" customHeight="1">
+      <c r="A1015" s="1"/>
+      <c r="B1015" s="2"/>
+      <c r="C1015" s="1"/>
+      <c r="D1015" s="2"/>
+      <c r="E1015" s="1"/>
+      <c r="F1015" s="1"/>
+      <c r="G1015" s="1"/>
+      <c r="H1015" s="1"/>
+      <c r="I1015" s="1"/>
+      <c r="J1015" s="1"/>
+      <c r="K1015" s="1"/>
+      <c r="L1015" s="1"/>
+      <c r="M1015" s="1"/>
+      <c r="N1015" s="1"/>
+      <c r="O1015" s="1"/>
+      <c r="P1015" s="1"/>
+      <c r="Q1015" s="1"/>
+      <c r="R1015" s="1"/>
+      <c r="S1015" s="1"/>
+      <c r="T1015" s="1"/>
+      <c r="U1015" s="1"/>
+      <c r="V1015" s="1"/>
+      <c r="W1015" s="1"/>
+      <c r="X1015" s="1"/>
+      <c r="Y1015" s="1"/>
+      <c r="Z1015" s="1"/>
+    </row>
+    <row r="1016" ht="15.75" customHeight="1">
+      <c r="A1016" s="1"/>
+      <c r="B1016" s="2"/>
+      <c r="C1016" s="1"/>
+      <c r="D1016" s="2"/>
+      <c r="E1016" s="1"/>
+      <c r="F1016" s="1"/>
+      <c r="G1016" s="1"/>
+      <c r="H1016" s="1"/>
+      <c r="I1016" s="1"/>
+      <c r="J1016" s="1"/>
+      <c r="K1016" s="1"/>
+      <c r="L1016" s="1"/>
+      <c r="M1016" s="1"/>
+      <c r="N1016" s="1"/>
+      <c r="O1016" s="1"/>
+      <c r="P1016" s="1"/>
+      <c r="Q1016" s="1"/>
+      <c r="R1016" s="1"/>
+      <c r="S1016" s="1"/>
+      <c r="T1016" s="1"/>
+      <c r="U1016" s="1"/>
+      <c r="V1016" s="1"/>
+      <c r="W1016" s="1"/>
+      <c r="X1016" s="1"/>
+      <c r="Y1016" s="1"/>
+      <c r="Z1016" s="1"/>
+    </row>
+    <row r="1017" ht="15.75" customHeight="1">
+      <c r="A1017" s="1"/>
+      <c r="B1017" s="2"/>
+      <c r="C1017" s="1"/>
+      <c r="D1017" s="2"/>
+      <c r="E1017" s="1"/>
+      <c r="F1017" s="1"/>
+      <c r="G1017" s="1"/>
+      <c r="H1017" s="1"/>
+      <c r="I1017" s="1"/>
+      <c r="J1017" s="1"/>
+      <c r="K1017" s="1"/>
+      <c r="L1017" s="1"/>
+      <c r="M1017" s="1"/>
+      <c r="N1017" s="1"/>
+      <c r="O1017" s="1"/>
+      <c r="P1017" s="1"/>
+      <c r="Q1017" s="1"/>
+      <c r="R1017" s="1"/>
+      <c r="S1017" s="1"/>
+      <c r="T1017" s="1"/>
+      <c r="U1017" s="1"/>
+      <c r="V1017" s="1"/>
+      <c r="W1017" s="1"/>
+      <c r="X1017" s="1"/>
+      <c r="Y1017" s="1"/>
+      <c r="Z1017" s="1"/>
+    </row>
+    <row r="1018" ht="15.75" customHeight="1">
+      <c r="A1018" s="1"/>
+      <c r="B1018" s="2"/>
+      <c r="C1018" s="1"/>
+      <c r="D1018" s="2"/>
+      <c r="E1018" s="1"/>
+      <c r="F1018" s="1"/>
+      <c r="G1018" s="1"/>
+      <c r="H1018" s="1"/>
+      <c r="I1018" s="1"/>
+      <c r="J1018" s="1"/>
+      <c r="K1018" s="1"/>
+      <c r="L1018" s="1"/>
+      <c r="M1018" s="1"/>
+      <c r="N1018" s="1"/>
+      <c r="O1018" s="1"/>
+      <c r="P1018" s="1"/>
+      <c r="Q1018" s="1"/>
+      <c r="R1018" s="1"/>
+      <c r="S1018" s="1"/>
+      <c r="T1018" s="1"/>
+      <c r="U1018" s="1"/>
+      <c r="V1018" s="1"/>
+      <c r="W1018" s="1"/>
+      <c r="X1018" s="1"/>
+      <c r="Y1018" s="1"/>
+      <c r="Z1018" s="1"/>
+    </row>
+    <row r="1019" ht="15.75" customHeight="1">
+      <c r="A1019" s="1"/>
+      <c r="B1019" s="2"/>
+      <c r="C1019" s="1"/>
+      <c r="D1019" s="2"/>
+      <c r="E1019" s="1"/>
+      <c r="F1019" s="1"/>
+      <c r="G1019" s="1"/>
+      <c r="H1019" s="1"/>
+      <c r="I1019" s="1"/>
+      <c r="J1019" s="1"/>
+      <c r="K1019" s="1"/>
+      <c r="L1019" s="1"/>
+      <c r="M1019" s="1"/>
+      <c r="N1019" s="1"/>
+      <c r="O1019" s="1"/>
+      <c r="P1019" s="1"/>
+      <c r="Q1019" s="1"/>
+      <c r="R1019" s="1"/>
+      <c r="S1019" s="1"/>
+      <c r="T1019" s="1"/>
+      <c r="U1019" s="1"/>
+      <c r="V1019" s="1"/>
+      <c r="W1019" s="1"/>
+      <c r="X1019" s="1"/>
+      <c r="Y1019" s="1"/>
+      <c r="Z1019" s="1"/>
+    </row>
+    <row r="1020" ht="15.75" customHeight="1">
+      <c r="A1020" s="1"/>
+      <c r="B1020" s="2"/>
+      <c r="C1020" s="1"/>
+      <c r="D1020" s="2"/>
+      <c r="E1020" s="1"/>
+      <c r="F1020" s="1"/>
+      <c r="G1020" s="1"/>
+      <c r="H1020" s="1"/>
+      <c r="I1020" s="1"/>
+      <c r="J1020" s="1"/>
+      <c r="K1020" s="1"/>
+      <c r="L1020" s="1"/>
+      <c r="M1020" s="1"/>
+      <c r="N1020" s="1"/>
+      <c r="O1020" s="1"/>
+      <c r="P1020" s="1"/>
+      <c r="Q1020" s="1"/>
+      <c r="R1020" s="1"/>
+      <c r="S1020" s="1"/>
+      <c r="T1020" s="1"/>
+      <c r="U1020" s="1"/>
+      <c r="V1020" s="1"/>
+      <c r="W1020" s="1"/>
+      <c r="X1020" s="1"/>
+      <c r="Y1020" s="1"/>
+      <c r="Z1020" s="1"/>
+    </row>
+    <row r="1021" ht="15.75" customHeight="1">
+      <c r="A1021" s="1"/>
+      <c r="B1021" s="2"/>
+      <c r="C1021" s="1"/>
+      <c r="D1021" s="2"/>
+      <c r="E1021" s="1"/>
+      <c r="F1021" s="1"/>
+      <c r="G1021" s="1"/>
+      <c r="H1021" s="1"/>
+      <c r="I1021" s="1"/>
+      <c r="J1021" s="1"/>
+      <c r="K1021" s="1"/>
+      <c r="L1021" s="1"/>
+      <c r="M1021" s="1"/>
+      <c r="N1021" s="1"/>
+      <c r="O1021" s="1"/>
+      <c r="P1021" s="1"/>
+      <c r="Q1021" s="1"/>
+      <c r="R1021" s="1"/>
+      <c r="S1021" s="1"/>
+      <c r="T1021" s="1"/>
+      <c r="U1021" s="1"/>
+      <c r="V1021" s="1"/>
+      <c r="W1021" s="1"/>
+      <c r="X1021" s="1"/>
+      <c r="Y1021" s="1"/>
+      <c r="Z1021" s="1"/>
+    </row>
+    <row r="1022" ht="15.75" customHeight="1">
+      <c r="A1022" s="1"/>
+      <c r="B1022" s="2"/>
+      <c r="C1022" s="1"/>
+      <c r="D1022" s="2"/>
+      <c r="E1022" s="1"/>
+      <c r="F1022" s="1"/>
+      <c r="G1022" s="1"/>
+      <c r="H1022" s="1"/>
+      <c r="I1022" s="1"/>
+      <c r="J1022" s="1"/>
+      <c r="K1022" s="1"/>
+      <c r="L1022" s="1"/>
+      <c r="M1022" s="1"/>
+      <c r="N1022" s="1"/>
+      <c r="O1022" s="1"/>
+      <c r="P1022" s="1"/>
+      <c r="Q1022" s="1"/>
+      <c r="R1022" s="1"/>
+      <c r="S1022" s="1"/>
+      <c r="T1022" s="1"/>
+      <c r="U1022" s="1"/>
+      <c r="V1022" s="1"/>
+      <c r="W1022" s="1"/>
+      <c r="X1022" s="1"/>
+      <c r="Y1022" s="1"/>
+      <c r="Z1022" s="1"/>
+    </row>
+    <row r="1023" ht="15.75" customHeight="1">
+      <c r="A1023" s="1"/>
+      <c r="B1023" s="2"/>
+      <c r="C1023" s="1"/>
+      <c r="D1023" s="2"/>
+      <c r="E1023" s="1"/>
+      <c r="F1023" s="1"/>
+      <c r="G1023" s="1"/>
+      <c r="H1023" s="1"/>
+      <c r="I1023" s="1"/>
+      <c r="J1023" s="1"/>
+      <c r="K1023" s="1"/>
+      <c r="L1023" s="1"/>
+      <c r="M1023" s="1"/>
+      <c r="N1023" s="1"/>
+      <c r="O1023" s="1"/>
+      <c r="P1023" s="1"/>
+      <c r="Q1023" s="1"/>
+      <c r="R1023" s="1"/>
+      <c r="S1023" s="1"/>
+      <c r="T1023" s="1"/>
+      <c r="U1023" s="1"/>
+      <c r="V1023" s="1"/>
+      <c r="W1023" s="1"/>
+      <c r="X1023" s="1"/>
+      <c r="Y1023" s="1"/>
+      <c r="Z1023" s="1"/>
+    </row>
+    <row r="1024" ht="15.75" customHeight="1">
+      <c r="A1024" s="1"/>
+      <c r="B1024" s="2"/>
+      <c r="C1024" s="1"/>
+      <c r="D1024" s="2"/>
+      <c r="E1024" s="1"/>
+      <c r="F1024" s="1"/>
+      <c r="G1024" s="1"/>
+      <c r="H1024" s="1"/>
+      <c r="I1024" s="1"/>
+      <c r="J1024" s="1"/>
+      <c r="K1024" s="1"/>
+      <c r="L1024" s="1"/>
+      <c r="M1024" s="1"/>
+      <c r="N1024" s="1"/>
+      <c r="O1024" s="1"/>
+      <c r="P1024" s="1"/>
+      <c r="Q1024" s="1"/>
+      <c r="R1024" s="1"/>
+      <c r="S1024" s="1"/>
+      <c r="T1024" s="1"/>
+      <c r="U1024" s="1"/>
+      <c r="V1024" s="1"/>
+      <c r="W1024" s="1"/>
+      <c r="X1024" s="1"/>
+      <c r="Y1024" s="1"/>
+      <c r="Z1024" s="1"/>
+    </row>
+    <row r="1025" ht="15.75" customHeight="1">
+      <c r="A1025" s="1"/>
+      <c r="B1025" s="2"/>
+      <c r="C1025" s="1"/>
+      <c r="D1025" s="2"/>
+      <c r="E1025" s="1"/>
+      <c r="F1025" s="1"/>
+      <c r="G1025" s="1"/>
+      <c r="H1025" s="1"/>
+      <c r="I1025" s="1"/>
+      <c r="J1025" s="1"/>
+      <c r="K1025" s="1"/>
+      <c r="L1025" s="1"/>
+      <c r="M1025" s="1"/>
+      <c r="N1025" s="1"/>
+      <c r="O1025" s="1"/>
+      <c r="P1025" s="1"/>
+      <c r="Q1025" s="1"/>
+      <c r="R1025" s="1"/>
+      <c r="S1025" s="1"/>
+      <c r="T1025" s="1"/>
+      <c r="U1025" s="1"/>
+      <c r="V1025" s="1"/>
+      <c r="W1025" s="1"/>
+      <c r="X1025" s="1"/>
+      <c r="Y1025" s="1"/>
+      <c r="Z1025" s="1"/>
+    </row>
+    <row r="1026" ht="15.75" customHeight="1">
+      <c r="A1026" s="1"/>
+      <c r="B1026" s="2"/>
+      <c r="C1026" s="1"/>
+      <c r="D1026" s="2"/>
+      <c r="E1026" s="1"/>
+      <c r="F1026" s="1"/>
+      <c r="G1026" s="1"/>
+      <c r="H1026" s="1"/>
+      <c r="I1026" s="1"/>
+      <c r="J1026" s="1"/>
+      <c r="K1026" s="1"/>
+      <c r="L1026" s="1"/>
+      <c r="M1026" s="1"/>
+      <c r="N1026" s="1"/>
+      <c r="O1026" s="1"/>
+      <c r="P1026" s="1"/>
+      <c r="Q1026" s="1"/>
+      <c r="R1026" s="1"/>
+      <c r="S1026" s="1"/>
+      <c r="T1026" s="1"/>
+      <c r="U1026" s="1"/>
+      <c r="V1026" s="1"/>
+      <c r="W1026" s="1"/>
+      <c r="X1026" s="1"/>
+      <c r="Y1026" s="1"/>
+      <c r="Z1026" s="1"/>
+    </row>
+    <row r="1027" ht="15.75" customHeight="1">
+      <c r="A1027" s="1"/>
+      <c r="B1027" s="2"/>
+      <c r="C1027" s="1"/>
+      <c r="D1027" s="2"/>
+      <c r="E1027" s="1"/>
+      <c r="F1027" s="1"/>
+      <c r="G1027" s="1"/>
+      <c r="H1027" s="1"/>
+      <c r="I1027" s="1"/>
+      <c r="J1027" s="1"/>
+      <c r="K1027" s="1"/>
+      <c r="L1027" s="1"/>
+      <c r="M1027" s="1"/>
+      <c r="N1027" s="1"/>
+      <c r="O1027" s="1"/>
+      <c r="P1027" s="1"/>
+      <c r="Q1027" s="1"/>
+      <c r="R1027" s="1"/>
+      <c r="S1027" s="1"/>
+      <c r="T1027" s="1"/>
+      <c r="U1027" s="1"/>
+      <c r="V1027" s="1"/>
+      <c r="W1027" s="1"/>
+      <c r="X1027" s="1"/>
+      <c r="Y1027" s="1"/>
+      <c r="Z1027" s="1"/>
+    </row>
+    <row r="1028" ht="15.75" customHeight="1">
+      <c r="A1028" s="1"/>
+      <c r="B1028" s="2"/>
+      <c r="C1028" s="1"/>
+      <c r="D1028" s="2"/>
+      <c r="E1028" s="1"/>
+      <c r="F1028" s="1"/>
+      <c r="G1028" s="1"/>
+      <c r="H1028" s="1"/>
+      <c r="I1028" s="1"/>
+      <c r="J1028" s="1"/>
+      <c r="K1028" s="1"/>
+      <c r="L1028" s="1"/>
+      <c r="M1028" s="1"/>
+      <c r="N1028" s="1"/>
+      <c r="O1028" s="1"/>
+      <c r="P1028" s="1"/>
+      <c r="Q1028" s="1"/>
+      <c r="R1028" s="1"/>
+      <c r="S1028" s="1"/>
+      <c r="T1028" s="1"/>
+      <c r="U1028" s="1"/>
+      <c r="V1028" s="1"/>
+      <c r="W1028" s="1"/>
+      <c r="X1028" s="1"/>
+      <c r="Y1028" s="1"/>
+      <c r="Z1028" s="1"/>
+    </row>
+    <row r="1029" ht="15.75" customHeight="1">
+      <c r="A1029" s="1"/>
+      <c r="B1029" s="2"/>
+      <c r="C1029" s="1"/>
+      <c r="D1029" s="2"/>
+      <c r="E1029" s="1"/>
+      <c r="F1029" s="1"/>
+      <c r="G1029" s="1"/>
+      <c r="H1029" s="1"/>
+      <c r="I1029" s="1"/>
+      <c r="J1029" s="1"/>
+      <c r="K1029" s="1"/>
+      <c r="L1029" s="1"/>
+      <c r="M1029" s="1"/>
+      <c r="N1029" s="1"/>
+      <c r="O1029" s="1"/>
+      <c r="P1029" s="1"/>
+      <c r="Q1029" s="1"/>
+      <c r="R1029" s="1"/>
+      <c r="S1029" s="1"/>
+      <c r="T1029" s="1"/>
+      <c r="U1029" s="1"/>
+      <c r="V1029" s="1"/>
+      <c r="W1029" s="1"/>
+      <c r="X1029" s="1"/>
+      <c r="Y1029" s="1"/>
+      <c r="Z1029" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="C4"/>
+    <hyperlink r:id="rId4" ref="C5"/>
+    <hyperlink r:id="rId5" ref="C6"/>
+    <hyperlink r:id="rId6" ref="C7"/>
+    <hyperlink r:id="rId7" ref="C9"/>
+    <hyperlink r:id="rId8" ref="C10"/>
+    <hyperlink r:id="rId9" ref="C11"/>
+    <hyperlink r:id="rId10" ref="C12"/>
+    <hyperlink r:id="rId11" ref="C13"/>
+    <hyperlink r:id="rId12" ref="C14"/>
+    <hyperlink r:id="rId13" ref="C15"/>
+    <hyperlink r:id="rId14" ref="C16"/>
+    <hyperlink r:id="rId15" ref="C17"/>
+    <hyperlink r:id="rId16" ref="C18"/>
+    <hyperlink r:id="rId17" ref="C19"/>
+    <hyperlink r:id="rId18" ref="C20"/>
+    <hyperlink r:id="rId19" ref="C21"/>
+    <hyperlink r:id="rId20" ref="C22"/>
+    <hyperlink r:id="rId21" ref="C23"/>
+    <hyperlink r:id="rId22" ref="C24"/>
+    <hyperlink r:id="rId23" ref="C25"/>
+    <hyperlink r:id="rId24" ref="C26"/>
+    <hyperlink r:id="rId25" ref="C27"/>
+    <hyperlink r:id="rId26" ref="C28"/>
+    <hyperlink r:id="rId27" ref="C29"/>
+    <hyperlink r:id="rId28" ref="C30"/>
+    <hyperlink r:id="rId29" ref="C31"/>
+    <hyperlink r:id="rId30" ref="C32"/>
+    <hyperlink r:id="rId31" ref="C33"/>
+    <hyperlink r:id="rId32" ref="C34"/>
+    <hyperlink r:id="rId33" ref="C35"/>
+    <hyperlink r:id="rId34" ref="C36"/>
+    <hyperlink r:id="rId35" ref="C37"/>
+    <hyperlink r:id="rId36" ref="C38"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId37"/>
 </worksheet>
 </file>